--- a/transfer/release/0714/CRQ000000202270/Test Cases_in-v2.09.360p01_CRQ000000202270.xlsx
+++ b/transfer/release/0714/CRQ000000202270/Test Cases_in-v2.09.360p01_CRQ000000202270.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\carro checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za-tanboyang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E138C7-1767-4906-B0E6-5B5DD72D3C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB722F48-CF87-425F-AE5E-821C1A592E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{50B23F7C-ECA2-4E84-97FE-D0E3BAE4F1EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="test steps" sheetId="2" r:id="rId1"/>
-    <sheet name="test evidence" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,131 +34,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Support downloading Renew vehicle list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Go to the Policy Application page
-2.Check the 'renew'
-3.input Master Policy No
-4.click 'Download Vehicle list'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Successfully Download Vehicle list, suffix display 'csv'
- Vehicle information is correct</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CV00000060011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effective Date:2021-02-25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CV00000050013</t>
-  </si>
-  <si>
-    <t>Effective Date:2020-07-15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precondition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find a Master Policy that has not released the EV feature before</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>场景1：出单之后跑stripe 之后 死锁1个小时，不能出单，这个阶段出的单进waiting表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNACK.735783@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款批是bizTime=2021-07-08 10:53:00 时间跑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑批内一小时出单 进入wait表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过了死锁之后生成新的保单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新的预授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一周之后  当SA 已经到达上限的时候，只能出PA 的单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预授权产生正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snack SA 到达上限 继续出单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预授权没有没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Regular"/>
-      <family val="2"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -164,67 +126,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,23 +164,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>408133</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>18459</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>572495</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B3F3C-5A51-4A4F-B24F-E6362E13592A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DE0074-9B16-420A-A418-5493A7371F27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -275,8 +196,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="542925"/>
-          <a:ext cx="11533333" cy="4723809"/>
+          <a:off x="0" y="1638300"/>
+          <a:ext cx="17438095" cy="4733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -287,23 +208,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>389086</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>170863</xdr:rowOff>
+      <xdr:colOff>432895</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>18907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A85980-B5E1-4D61-BA63-629099DBFF49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFEF093-5B03-44A9-9B79-F304F9F7C86B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -319,8 +240,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="5610225"/>
-          <a:ext cx="11514286" cy="4695238"/>
+          <a:off x="0" y="6165850"/>
+          <a:ext cx="16638095" cy="1142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -331,23 +252,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>512895</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>8774</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>150190</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F60205-5433-4C1E-8C71-092C402E0497}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940B9D6D-C26A-41A7-B6FE-4EAB43B64026}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -363,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="11582400"/>
-          <a:ext cx="11638095" cy="6009524"/>
+          <a:off x="0" y="7943850"/>
+          <a:ext cx="17676190" cy="4038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,23 +296,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>303371</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>180387</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>324876</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>136307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187CF518-9307-4519-AF73-1A929B4EE14D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650E3911-73BD-4471-B5A2-7655DD43294A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -407,8 +328,189 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="17945100"/>
-          <a:ext cx="11428571" cy="4704762"/>
+          <a:off x="0" y="12617450"/>
+          <a:ext cx="17190476" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>102571</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>170562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EB8582-F531-4D2A-AC62-4EB752AEE307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15113000"/>
+          <a:ext cx="17628571" cy="7104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>328133</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>66245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D50589-DAA3-4C84-A210-26B97549CD7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22942550"/>
+          <a:ext cx="16533333" cy="3438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>461421</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8819628F-A249-4F77-B878-380468FBF2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6305550"/>
+          <a:ext cx="17028571" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>413802</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29B3379-FCE9-490B-B245-E558BBDF79B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="16980952" cy="5419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -421,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,7 +539,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -449,7 +551,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -463,12 +565,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -496,14 +598,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -531,6 +650,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,122 +809,116 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C6107D-D00C-478E-A94A-B91D42C5DBB0}">
+  <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="183.95" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>222113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7EAE9EF7-E092-4229-A873-7ACBD68AB071}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523CA933-E25E-41C8-B720-7D33960E53C9}">
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E145" sqref="E144:E145"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="11"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>222163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="9" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="9"/>
-      <c r="C77" s="9"/>
-    </row>
-    <row r="81" ht="17.100000000000001" customHeight="1"/>
-    <row r="114" spans="1:3">
-      <c r="A114" s="9"/>
-      <c r="C114" s="9"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="9"/>
-      <c r="C130" s="9"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="9"/>
-      <c r="C152" s="9"/>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="10"/>
-      <c r="C191" s="9"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>